--- a/data/case1/14/V2_13.xlsx
+++ b/data/case1/14/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999329088762</v>
+        <v>0.99999999465098655</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99826450215843576</v>
+        <v>0.99827606596830698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99252997600453197</v>
+        <v>0.99260386160420189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9952520999311012</v>
+        <v>0.99425943816268803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98481091147401068</v>
+        <v>0.98271339805427194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96200506982844047</v>
+        <v>0.95857168674844773</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9591797397257037</v>
+        <v>0.9519742358858575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95183620036031003</v>
+        <v>0.94284274751499852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94502072691287187</v>
+        <v>0.93109531747852214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93911325682610947</v>
+        <v>0.92026554619628298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93784919268272993</v>
+        <v>0.91866923426905767</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93570054037413297</v>
+        <v>0.91588910126035072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92890072397193735</v>
+        <v>0.90460096102039123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92724810864036344</v>
+        <v>0.90043335614479725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92663786074292553</v>
+        <v>0.89784173707118242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92627311230541753</v>
+        <v>0.89533515043609158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92861916952479417</v>
+        <v>0.89162711863905919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92973356311326327</v>
+        <v>0.89051819418988321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99721130372464573</v>
+        <v>0.99722284377789627</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99009436234056147</v>
+        <v>0.99010581337011105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98869588814270237</v>
+        <v>0.98870732036345521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98743139065905949</v>
+        <v>0.98744281479215545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98442684852534446</v>
+        <v>0.98556961252467623</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96968376076736162</v>
+        <v>0.97254929785723121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96322683090209793</v>
+        <v>0.96609239354003695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95962226992119737</v>
+        <v>0.95645981192247387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9565489110846801</v>
+        <v>0.9537650351627992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94492002686391285</v>
+        <v>0.94443511707994809</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93694187843801569</v>
+        <v>0.93817631325745188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93340424536834177</v>
+        <v>0.93530636244219045</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92575159575235788</v>
+        <v>0.93113530735709382</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92407233017176327</v>
+        <v>0.92945601361753383</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92355232973874768</v>
+        <v>0.92893600128157727</v>
       </c>
     </row>
   </sheetData>
